--- a/experiment_results/backup_result/worst_case/Elevator/1wise/0.95_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/Elevator/1wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="36">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -6604,6 +6606,1760 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>292</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>185</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>115</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>218</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>286</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>357</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>305</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>379</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>392</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>392</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>411</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>366</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>279</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>208</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>411</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>329</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>405</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>382</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>330</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
